--- a/bom/test-boards.xlsx
+++ b/bom/test-boards.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8F6C04-417D-433E-B4BC-F51B5075ACCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D802ED-7409-42C8-9FB6-3D0F89563581}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="3280" yWindow="1730" windowWidth="24000" windowHeight="12760" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="microstrip-test-4-layer-sma-v1" sheetId="1" r:id="rId1"/>
+    <sheet name="microstrip-test-4-layer-sma" sheetId="1" r:id="rId1"/>
     <sheet name="template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
@@ -43,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
-    <t>Initial BOM. Assembled 2x boards</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>P/DNP =</t>
   </si>
   <si>
-    <t>Source: microstrip-test-4-layer-sma-v1.sch</t>
-  </si>
-  <si>
     <t>Bill Of Materials</t>
   </si>
   <si>
@@ -152,6 +143,12 @@
   </si>
   <si>
     <t>Initial BOM.</t>
+  </si>
+  <si>
+    <t>Source: microstrip-test-4-layer-sma-xx-xx.sch</t>
+  </si>
+  <si>
+    <t>Initial BOM. Assembled 2x boards for 34-40</t>
   </si>
 </sst>
 </file>
@@ -247,21 +244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="synthesizer-RF-Si4123"/>
-      <sheetName val="template"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,7 +546,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -588,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -601,15 +583,15 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
@@ -617,15 +599,15 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -634,7 +616,7 @@
     </row>
     <row r="4" spans="1:12" ht="13">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -666,40 +648,40 @@
     </row>
     <row r="7" spans="1:12" ht="13">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -707,31 +689,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -750,19 +732,19 @@
     </row>
     <row r="15" spans="1:12" ht="13">
       <c r="A15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -773,7 +755,7 @@
         <v>43675</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +794,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -825,15 +807,15 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
@@ -841,15 +823,15 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -858,7 +840,7 @@
     </row>
     <row r="4" spans="1:12" ht="13">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -890,40 +872,40 @@
     </row>
     <row r="7" spans="1:12" ht="13">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -942,19 +924,19 @@
     </row>
     <row r="24" spans="1:12" ht="13">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -962,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/bom/test-boards.xlsx
+++ b/bom/test-boards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D802ED-7409-42C8-9FB6-3D0F89563581}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127C970-E4EC-49DF-95D6-B18B28BE72DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1730" windowWidth="24000" windowHeight="12760" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="3700" yWindow="1150" windowWidth="20410" windowHeight="14720" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="microstrip-test-4-layer-sma" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Notes</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Initial BOM. Assembled 2x boards for 34-40</t>
+  </si>
+  <si>
+    <t>Assembled 2x boards for 36-38</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B81EE-4D59-4764-84A4-53B58B246743}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -686,7 +689,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>12</v>
@@ -756,6 +759,14 @@
       </c>
       <c r="C18" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43742</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/bom/test-boards.xlsx
+++ b/bom/test-boards.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127C970-E4EC-49DF-95D6-B18B28BE72DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F962B0-D29F-43F2-BAB7-1F9EB05E7D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1150" windowWidth="20410" windowHeight="14720" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="7660" yWindow="1480" windowWidth="21320" windowHeight="14390" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="microstrip-test-4-layer-sma" sheetId="1" r:id="rId1"/>
-    <sheet name="template" sheetId="2" r:id="rId2"/>
+    <sheet name="cal-thru-reflect-match-sma" sheetId="3" r:id="rId1"/>
+    <sheet name="microstrip-test-4-layer-sma" sheetId="1" r:id="rId2"/>
+    <sheet name="template" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"oresat-proto-card.csv"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Notes</t>
   </si>
@@ -55,9 +58,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>J658-ND</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -152,6 +152,45 @@
   </si>
   <si>
     <t>Assembled 2x boards for 36-38</t>
+  </si>
+  <si>
+    <t>Digikey/Mouser</t>
+  </si>
+  <si>
+    <t>J658-ND / 530-142-0701-851</t>
+  </si>
+  <si>
+    <t>Assembled 1x all SMAs</t>
+  </si>
+  <si>
+    <t>Assembled 1x only J2/3 SMAs, no R1/2</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RT0402BRD07100RL</t>
+  </si>
+  <si>
+    <t>R - 0402, 100, 0.1%, 25ppm</t>
+  </si>
+  <si>
+    <t>YAG2301CT-ND</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Precision 100 ohm resistor</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>Source: calibration-thru-reflect-match-sma.sch</t>
   </si>
 </sst>
 </file>
@@ -545,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B81EE-4D59-4764-84A4-53B58B246743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C3E8AB-C95A-491D-B8D3-187C0274D7F2}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -573,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -586,15 +625,15 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
@@ -602,15 +641,15 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -619,7 +658,7 @@
     </row>
     <row r="4" spans="1:12" ht="13">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -651,72 +690,107 @@
     </row>
     <row r="7" spans="1:12" ht="13">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -755,18 +829,18 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>43675</v>
+        <v>43778</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="2">
-        <v>43742</v>
+        <v>43778</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -777,6 +851,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B81EE-4D59-4764-84A4-53B58B246743}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.36328125" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" customWidth="1"/>
+    <col min="16" max="16" width="27.81640625" customWidth="1"/>
+    <col min="17" max="17" width="29.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="13">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="13">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="13">
+      <c r="A5"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="13">
+      <c r="A6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="13">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="13">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43742</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8657E1-A053-4CAC-8CB3-2C25C4CCFF02}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -805,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -818,15 +1124,15 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
@@ -834,15 +1140,15 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -851,7 +1157,7 @@
     </row>
     <row r="4" spans="1:12" ht="13">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -883,40 +1189,40 @@
     </row>
     <row r="7" spans="1:12" ht="13">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -955,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
